--- a/pile201020.xlsx
+++ b/pile201020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00025134\github\Ave_N_value\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b47e98cd413ab0b0/デスクトップ/github/Ave_N_value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{866F0C86-6B56-44F3-821C-147C00BEF91E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3728" documentId="8_{866F0C86-6B56-44F3-821C-147C00BEF91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173B8E8C-9974-4B4D-89C3-5F750D1DDF91}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="345" windowWidth="14865" windowHeight="9375" tabRatio="603" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="20" r:id="rId1"/>
@@ -31,7 +31,19 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4968,7 +4980,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
@@ -4977,10 +4989,10 @@
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="0.0E+00"/>
     <numFmt numFmtId="181" formatCode="0.000_ "/>
-    <numFmt numFmtId="187" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="188" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="194" formatCode="0.000"/>
-    <numFmt numFmtId="195" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="185" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -5419,7 +5431,7 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5435,7 +5447,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5444,31 +5456,31 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5490,40 +5502,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5532,16 +5544,16 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5556,16 +5568,16 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5590,7 +5602,7 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5600,7 +5612,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5609,13 +5621,13 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5624,17 +5636,17 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="195" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5643,28 +5655,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -5679,30 +5691,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5711,16 +5723,16 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5729,19 +5741,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5794,25 +5806,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5824,22 +5836,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5857,13 +5869,13 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5880,17 +5892,30 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5902,8 +5927,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5913,47 +5962,10 @@
     <xf numFmtId="5" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6000,7 +6012,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E836B44F-4F49-45A8-B908-4E5A63DCFE59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6020,7 +6032,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -6031,15 +6042,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -6072,7 +6074,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191E5CF1-BC9E-45A7-932E-C15BF6A9C606}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6092,7 +6094,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
@@ -6103,15 +6104,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -6144,7 +6136,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E6D0DA-BEC6-49D1-B01E-91447D95EAEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6169,18 +6161,6 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6192,6 +6172,56 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Pile"/>
+      <sheetName val="Data"/>
+      <sheetName val="xfunxf"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Chang1"/>
+      <definedName name="Pile"/>
+      <definedName name="PileBeta"/>
+      <definedName name="PileKh"/>
+      <definedName name="PilePcFx"/>
+      <definedName name="PilePcMa"/>
+      <definedName name="PilePcQa"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Pile"/>
+      <sheetName val="Data"/>
+      <sheetName val="xfunxf"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Pile"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6213,52 +6243,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Pile"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Chang1"/>
-      <definedName name="Pile"/>
-      <definedName name="PileBeta"/>
-      <definedName name="PileKh"/>
-      <definedName name="PilePcFx"/>
-      <definedName name="PilePcMa"/>
-      <definedName name="PilePcQa"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Pile"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Pile"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6526,16 +6510,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>719</v>
       </c>
@@ -6560,14 +6583,8 @@
       <c r="J2" t="s">
         <v>722</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1.3</v>
       </c>
@@ -6600,19 +6617,13 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>1.2999999523162842</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2.2999999999999998</v>
       </c>
@@ -6626,19 +6637,13 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>2.2999999523162842</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.6</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3.3</v>
       </c>
@@ -6651,8 +6656,17 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4.3</v>
       </c>
@@ -6665,8 +6679,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <v>4.3000001907348633</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5.3</v>
       </c>
@@ -6679,8 +6699,14 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K7">
+        <v>5.3000001907348633</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6.3</v>
       </c>
@@ -6693,8 +6719,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K8">
+        <v>6.3000001907348633</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7.3</v>
       </c>
@@ -6707,109 +6739,237 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K9">
+        <v>7.3000001907348633</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8.3000000000000007</v>
       </c>
       <c r="B10">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K10">
+        <v>8.3000001907348633</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9.3000000000000007</v>
       </c>
       <c r="B11">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K11">
+        <v>9.3000001907348633</v>
+      </c>
+      <c r="L11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10.3</v>
       </c>
       <c r="B12">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>10.300000190734863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11.3</v>
       </c>
       <c r="B13">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K13">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>11.300000190734863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12.3</v>
       </c>
       <c r="B14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K14">
+        <v>11.300000190734863</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>12.300000190734863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13.3</v>
       </c>
       <c r="B15">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>11.300000190734863</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>12.300000190734863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14.3</v>
       </c>
       <c r="B16">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <v>12.300000190734863</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>13.300000190734863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15.3</v>
       </c>
       <c r="B17">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <v>13.300000190734863</v>
+      </c>
+      <c r="L17">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>14.300000190734863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16.3</v>
       </c>
       <c r="B18">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <v>14.300000190734863</v>
+      </c>
+      <c r="L18">
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>15.300000190734863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17.3</v>
       </c>
       <c r="B19">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <v>15.300000190734863</v>
+      </c>
+      <c r="L19">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>16.299999237060547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18.3</v>
       </c>
       <c r="B20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <v>16.299999237060547</v>
+      </c>
+      <c r="L20">
+        <v>63</v>
+      </c>
+      <c r="M20">
+        <v>17.299999237060547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19.3</v>
       </c>
       <c r="B21">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <v>17.299999237060547</v>
+      </c>
+      <c r="L21">
+        <v>71</v>
+      </c>
+      <c r="M21">
+        <v>18.299999237060547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20.3</v>
       </c>
       <c r="B22">
         <v>107</v>
+      </c>
+      <c r="K22">
+        <v>18.299999237060547</v>
+      </c>
+      <c r="L22">
+        <v>75</v>
+      </c>
+      <c r="M22">
+        <v>19.299999237060547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <v>19.299999237060547</v>
+      </c>
+      <c r="L23">
+        <v>88</v>
+      </c>
+      <c r="M23">
+        <v>20.299999237060547</v>
       </c>
     </row>
   </sheetData>
@@ -6819,7 +6979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:I31"/>
   <sheetViews>
@@ -7744,7 +7904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:P163"/>
   <sheetViews>
@@ -10643,6 +10803,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M2:M10"/>
+    <mergeCell ref="M11:M19"/>
+    <mergeCell ref="M20:M28"/>
+    <mergeCell ref="L2:L28"/>
+    <mergeCell ref="L29:L55"/>
+    <mergeCell ref="M29:M37"/>
+    <mergeCell ref="M38:M46"/>
+    <mergeCell ref="M47:M55"/>
+    <mergeCell ref="L56:L82"/>
+    <mergeCell ref="M56:M64"/>
+    <mergeCell ref="M65:M73"/>
+    <mergeCell ref="M74:M82"/>
+    <mergeCell ref="L83:L109"/>
+    <mergeCell ref="M83:M91"/>
+    <mergeCell ref="M92:M100"/>
+    <mergeCell ref="M101:M109"/>
     <mergeCell ref="L110:L136"/>
     <mergeCell ref="M110:M118"/>
     <mergeCell ref="M119:M127"/>
@@ -10651,22 +10827,6 @@
     <mergeCell ref="M137:M145"/>
     <mergeCell ref="M146:M154"/>
     <mergeCell ref="M155:M163"/>
-    <mergeCell ref="L56:L82"/>
-    <mergeCell ref="M56:M64"/>
-    <mergeCell ref="M65:M73"/>
-    <mergeCell ref="M74:M82"/>
-    <mergeCell ref="L83:L109"/>
-    <mergeCell ref="M83:M91"/>
-    <mergeCell ref="M92:M100"/>
-    <mergeCell ref="M101:M109"/>
-    <mergeCell ref="M2:M10"/>
-    <mergeCell ref="M11:M19"/>
-    <mergeCell ref="M20:M28"/>
-    <mergeCell ref="L2:L28"/>
-    <mergeCell ref="L29:L55"/>
-    <mergeCell ref="M29:M37"/>
-    <mergeCell ref="M38:M46"/>
-    <mergeCell ref="M47:M55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -10676,10 +10836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="E10:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
@@ -10794,7 +10955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AG104"/>
   <sheetViews>
@@ -10877,19 +11038,19 @@
         <v>100</v>
       </c>
       <c r="D6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 12)*100</f>
+        <f ca="1">[1]!Pile(A6, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A6, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F6" s="104" t="e">
-        <f ca="1">[2]!Pile(A6, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A6, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H6" s="21">
@@ -10897,11 +11058,11 @@
         <v>-1.35</v>
       </c>
       <c r="I6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K6" s="20" t="e">
@@ -10913,11 +11074,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M6" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N6" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -10928,36 +11089,36 @@
       <c r="B7" s="18">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
-        <f>[3]!Pile(A7, 1)</f>
-        <v>350</v>
+      <c r="C7" s="4" t="e">
+        <f ca="1">[2]!Pile(A7, 1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 12)*100</f>
+        <f ca="1">[1]!Pile(A7, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A7, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F7" s="104" t="e">
-        <f ca="1">[2]!Pile(A7, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A7, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7,2,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" s="21">
-        <f>1-(IF(0&gt;+B7*1000/C7-$E$19,0,(B7*1000/C7-$E$19)/100))</f>
-        <v>1</v>
+        <f ca="1">[1]!PilePcFx(A7,2,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="21" t="e">
+        <f ca="1">1-(IF(0&gt;+B7*1000/C7-$E$19,0,(B7*1000/C7-$E$19)/100))</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K7" s="20" t="e">
@@ -10969,11 +11130,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M7" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N7" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -10985,23 +11146,23 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 1)</f>
+        <f ca="1">[1]!Pile(A8, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 12)*100</f>
+        <f ca="1">[1]!Pile(A8, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A8, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F8" s="104" t="e">
-        <f ca="1">[2]!Pile(A8, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A8, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H8" s="21" t="e">
@@ -11009,11 +11170,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K8" s="20" t="e">
@@ -11025,11 +11186,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M8" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N8" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="O8" s="5"/>
@@ -11042,23 +11203,23 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 1)</f>
+        <f ca="1">[1]!Pile(A9, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 12)*100</f>
+        <f ca="1">[1]!Pile(A9, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A9, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F9" s="104" t="e">
-        <f ca="1">[2]!Pile(A9, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A9, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H9" s="21" t="e">
@@ -11066,11 +11227,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K9" s="20" t="e">
@@ -11082,11 +11243,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M9" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N9" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -11098,23 +11259,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 1)</f>
+        <f ca="1">[1]!Pile(A10, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 12)*100</f>
+        <f ca="1">[1]!Pile(A10, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A10, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F10" s="104" t="e">
-        <f ca="1">[2]!Pile(A10, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A10, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H10" s="21" t="e">
@@ -11122,11 +11283,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K10" s="20" t="e">
@@ -11138,11 +11299,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M10" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N10" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="S10" s="26"/>
@@ -11167,11 +11328,11 @@
       <c r="A12" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="204" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
       <c r="E12" s="10" t="s">
         <v>654</v>
       </c>
@@ -11191,11 +11352,11 @@
       <c r="A13" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="204" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
       <c r="E13" s="10" t="s">
         <v>716</v>
       </c>
@@ -11215,11 +11376,11 @@
       <c r="A14" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="204" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
       <c r="E14" s="10" t="s">
         <v>661</v>
       </c>
@@ -11234,10 +11395,10 @@
       <c r="K14" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="L14" s="204" t="s">
+      <c r="L14" s="201" t="s">
         <v>664</v>
       </c>
-      <c r="M14" s="205"/>
+      <c r="M14" s="202"/>
       <c r="AC14" s="19"/>
       <c r="AD14" s="25"/>
       <c r="AE14" s="4"/>
@@ -11246,11 +11407,11 @@
       <c r="A15" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
       <c r="E15" s="10" t="s">
         <v>666</v>
       </c>
@@ -11265,10 +11426,10 @@
       <c r="K15" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="L15" s="204" t="s">
+      <c r="L15" s="201" t="s">
         <v>669</v>
       </c>
-      <c r="M15" s="205"/>
+      <c r="M15" s="202"/>
       <c r="S15" s="26"/>
       <c r="AC15" s="19"/>
       <c r="AD15" s="25"/>
@@ -11278,11 +11439,11 @@
       <c r="A16" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
       <c r="E16" s="10" t="s">
         <v>671</v>
       </c>
@@ -11330,15 +11491,15 @@
       <c r="A18" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="204" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="201" t="s">
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="204" t="s">
         <v>679</v>
       </c>
-      <c r="F18" s="202"/>
+      <c r="F18" s="205"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="4"/>
@@ -11347,11 +11508,11 @@
       <c r="A19" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="25">
         <v>85</v>
       </c>
@@ -12150,6 +12311,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="A21:C21"/>
@@ -12160,14 +12329,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -12177,7 +12338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AG104"/>
   <sheetViews>
@@ -12257,23 +12418,23 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 1)</f>
+        <f ca="1">[1]!Pile(A6, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 12)*100</f>
+        <f ca="1">[1]!Pile(A6, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A6, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F6" s="104" t="e">
-        <f ca="1">[2]!Pile(A6, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A6, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H6" s="21" t="e">
@@ -12281,11 +12442,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K6" s="20" t="e">
@@ -12297,11 +12458,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M6" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N6" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A6, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -12313,23 +12474,23 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 1)</f>
+        <f ca="1">[1]!Pile(A7, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 12)*100</f>
+        <f ca="1">[1]!Pile(A7, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A7, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F7" s="104" t="e">
-        <f ca="1">[2]!Pile(A7, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A7, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H7" s="21" t="e">
@@ -12337,11 +12498,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K7" s="20" t="e">
@@ -12353,11 +12514,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M7" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N7" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A7, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -12369,23 +12530,23 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 1)</f>
+        <f ca="1">[1]!Pile(A8, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 12)*100</f>
+        <f ca="1">[1]!Pile(A8, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A8, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F8" s="104" t="e">
-        <f ca="1">[2]!Pile(A8, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A8, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H8" s="21" t="e">
@@ -12393,11 +12554,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K8" s="20" t="e">
@@ -12409,11 +12570,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M8" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N8" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A8, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="O8" s="5"/>
@@ -12426,23 +12587,23 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 1)</f>
+        <f ca="1">[1]!Pile(A9, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 12)*100</f>
+        <f ca="1">[1]!Pile(A9, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A9, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F9" s="104" t="e">
-        <f ca="1">[2]!Pile(A9, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A9, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H9" s="21" t="e">
@@ -12450,11 +12611,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K9" s="20" t="e">
@@ -12466,11 +12627,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M9" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N9" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A9, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -12482,23 +12643,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 1)</f>
+        <f ca="1">[1]!Pile(A10, 1)</f>
         <v>#NAME?</v>
       </c>
       <c r="D10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 12)*100</f>
+        <f ca="1">[1]!Pile(A10, 12)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="E10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 22)*10*10*10*10</f>
+        <f ca="1">[1]!Pile(A10, 22)*10*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="F10" s="104" t="e">
-        <f ca="1">[2]!Pile(A10, 25)*10*10*10</f>
+        <f ca="1">[1]!Pile(A10, 25)*10*10*10</f>
         <v>#NAME?</v>
       </c>
       <c r="G10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10,2,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10,2,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="H10" s="21" t="e">
@@ -12506,11 +12667,11 @@
         <v>#NAME?</v>
       </c>
       <c r="I10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 3,1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 3,1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="J10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 3, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 3, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="K10" s="20" t="e">
@@ -12522,11 +12683,11 @@
         <v>#NAME?</v>
       </c>
       <c r="M10" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 4, 1)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 4, 1)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="N10" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 4, 2)*9.80665/100</f>
+        <f ca="1">[1]!PilePcFx(A10, 4, 2)*9.80665/100</f>
         <v>#NAME?</v>
       </c>
       <c r="S10" s="26"/>
@@ -12551,11 +12712,11 @@
       <c r="A12" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="204" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
       <c r="E12" s="10" t="s">
         <v>654</v>
       </c>
@@ -12575,11 +12736,11 @@
       <c r="A13" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="204" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
       <c r="E13" s="10" t="s">
         <v>657</v>
       </c>
@@ -12599,11 +12760,11 @@
       <c r="A14" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="204" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
       <c r="E14" s="10" t="s">
         <v>661</v>
       </c>
@@ -12618,10 +12779,10 @@
       <c r="K14" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="L14" s="204" t="s">
+      <c r="L14" s="201" t="s">
         <v>664</v>
       </c>
-      <c r="M14" s="205"/>
+      <c r="M14" s="202"/>
       <c r="AC14" s="19"/>
       <c r="AD14" s="25"/>
       <c r="AE14" s="4"/>
@@ -12630,11 +12791,11 @@
       <c r="A15" s="19" t="s">
         <v>665</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="204" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
       <c r="E15" s="10" t="s">
         <v>666</v>
       </c>
@@ -12649,10 +12810,10 @@
       <c r="K15" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="L15" s="204" t="s">
+      <c r="L15" s="201" t="s">
         <v>669</v>
       </c>
-      <c r="M15" s="205"/>
+      <c r="M15" s="202"/>
       <c r="S15" s="26"/>
       <c r="AC15" s="19"/>
       <c r="AD15" s="25"/>
@@ -12662,11 +12823,11 @@
       <c r="A16" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="204" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
       <c r="E16" s="10" t="s">
         <v>671</v>
       </c>
@@ -12714,15 +12875,15 @@
       <c r="A18" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="204" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="201" t="s">
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="204" t="s">
         <v>679</v>
       </c>
-      <c r="F18" s="202"/>
+      <c r="F18" s="205"/>
       <c r="AC18" s="19"/>
       <c r="AD18" s="25"/>
       <c r="AG18" s="4"/>
@@ -12731,11 +12892,11 @@
       <c r="A19" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
       <c r="E19" s="25">
         <v>85</v>
       </c>
@@ -13535,6 +13696,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
@@ -13543,6 +13714,1402 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AG105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="7.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="18">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="e">
+        <f ca="1">[1]!Pile(A6, 1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="4" t="e">
+        <f ca="1">[1]!Pile(A6, 12)*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="4" t="e">
+        <f ca="1">[1]!Pile(A6, 22)*10*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F6" s="104" t="e">
+        <f ca="1">[1]!Pile(A6, 25)*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G6" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A6,2,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="21" t="e">
+        <f ca="1">1-(IF(0&gt;+B6*1000/C6-$E$19,0,(B6*1000/C6-$E$19)/100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I6" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A6, 3,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J6" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A6, 3, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K6" s="20" t="e">
+        <f ca="1">(I6-G6)*D6*H6/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" s="20" t="e">
+        <f ca="1">(J6-G6)*D6*H6/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M6" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A6, 4, 1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N6" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A6, 4, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" s="18">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="e">
+        <f ca="1">[1]!Pile(A7, 1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="4" t="e">
+        <f ca="1">[1]!Pile(A7, 12)*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="4" t="e">
+        <f ca="1">[1]!Pile(A7, 22)*10*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="104" t="e">
+        <f ca="1">[1]!Pile(A7, 25)*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A7,2,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="21" t="e">
+        <f ca="1">1-(IF(0&gt;+B7*1000/C7-$E$19,0,(B7*1000/C7-$E$19)/100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I7" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A7, 3,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A7, 3, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K7" s="20" t="e">
+        <f ca="1">(I7-G7)*D7*H7/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" s="20" t="e">
+        <f ca="1">(J7-G7)*D7*H7/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M7" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A7, 4, 1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N7" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A7, 4, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="18">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="e">
+        <f ca="1">[1]!Pile(A8, 1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D8" s="4" t="e">
+        <f ca="1">[1]!Pile(A8, 12)*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="4" t="e">
+        <f ca="1">[1]!Pile(A8, 22)*10*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="104" t="e">
+        <f ca="1">[1]!Pile(A8, 25)*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G8" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A8,2,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="21" t="e">
+        <f ca="1">1-(IF(0&gt;+B8*1000/C8-$E$19,0,(B8*1000/C8-$E$19)/100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A8, 3,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A8, 3, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K8" s="20" t="e">
+        <f ca="1">(I8-G8)*D8*H8/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="20" t="e">
+        <f ca="1">(J8-G8)*D8*H8/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M8" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A8, 4, 1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A8, 4, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="e">
+        <f ca="1">[1]!Pile(A9, 1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="4" t="e">
+        <f ca="1">[1]!Pile(A9, 12)*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="4" t="e">
+        <f ca="1">[1]!Pile(A9, 22)*10*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F9" s="104" t="e">
+        <f ca="1">[1]!Pile(A9, 25)*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A9,2,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="21" t="e">
+        <f ca="1">1-(IF(0&gt;+B9*1000/C9-$E$19,0,(B9*1000/C9-$E$19)/100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A9, 3,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A9, 3, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K9" s="20" t="e">
+        <f ca="1">(I9-G9)*D9*H9/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" s="20" t="e">
+        <f ca="1">(J9-G9)*D9*H9/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M9" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A9, 4, 1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N9" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A9, 4, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="e">
+        <f ca="1">[1]!Pile(A10, 1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D10" s="4" t="e">
+        <f ca="1">[1]!Pile(A10, 12)*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="4" t="e">
+        <f ca="1">[1]!Pile(A10, 22)*10*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="104" t="e">
+        <f ca="1">[1]!Pile(A10, 25)*10*10*10</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A10,2,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H10" s="21" t="e">
+        <f ca="1">1-(IF(0&gt;+B10*1000/C10-$E$19,0,(B10*1000/C10-$E$19)/100))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A10, 3,1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" s="20" t="e">
+        <f ca="1">[1]!PilePcFx(A10, 3, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K10" s="20" t="e">
+        <f ca="1">(I10-G10)*D10*H10/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" s="20" t="e">
+        <f ca="1">(J10-G10)*D10*H10/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A10, 4, 1)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N10" s="35" t="e">
+        <f ca="1">[1]!PilePcFx(A10, 4, 2)*9.80665/100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A11" s="162"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="165"/>
+    </row>
+    <row r="12" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="204" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="203" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="204" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="203" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="204" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="203" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="201" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="202"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="204" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="203" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="201" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="202"/>
+      <c r="S15" s="26"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="25"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="204" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="203" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD16" s="25"/>
+    </row>
+    <row r="17" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="203" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="203" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="25"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="1:33" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="204" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="204" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="205"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="25"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="1:33" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="204" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="25">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="19"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="S20" s="26"/>
+      <c r="AD20" s="25"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A21" s="203" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="str">
+        <f>A6</f>
+        <v>PHC30A</v>
+      </c>
+      <c r="B23" s="21" t="e">
+        <f ca="1">[1]!Pile(A23, 1)/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C23" s="28" t="e">
+        <f ca="1">B23^2*PI()/4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D23" s="4" t="e">
+        <f ca="1">B23*3.14</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E23" s="18">
+        <v>9</v>
+      </c>
+      <c r="F23" s="105">
+        <v>50</v>
+      </c>
+      <c r="G23" s="105">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>13</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23" t="e">
+        <f ca="1">1/3*300*C23*F23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L23" s="22" t="e">
+        <f ca="1">1/3*(G23*H23*10/3+1/2*I23*J23)*D23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M23" s="23" t="e">
+        <f ca="1">+K23+L23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N23" s="23" t="e">
+        <f ca="1">M23*2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P23" s="3">
+        <f>1*1*20*2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A24" s="27" t="str">
+        <f>A7</f>
+        <v>PHC35B</v>
+      </c>
+      <c r="B24" s="21" t="e">
+        <f ca="1">[1]!Pile(A24, 1)/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C24" s="28" t="e">
+        <f ca="1">B24^2*PI()/4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D24" s="4" t="e">
+        <f ca="1">B24*3.14</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E24" s="18">
+        <v>9</v>
+      </c>
+      <c r="F24" s="105">
+        <v>50</v>
+      </c>
+      <c r="G24" s="105">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>13</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="23" t="e">
+        <f ca="1">1/3*200*C24*F24</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L24" s="22" t="e">
+        <f ca="1">1/3*(G24*H24*10/3+1/2*I24*J24)*D24</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M24" s="23" t="e">
+        <f ca="1">+K24+L24</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N24" s="23" t="e">
+        <f ca="1">M24*2</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A25" s="27" t="str">
+        <f>A8</f>
+        <v>PHC45B</v>
+      </c>
+      <c r="B25" s="21" t="e">
+        <f ca="1">[1]!Pile(A25, 1)/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C25" s="28" t="e">
+        <f ca="1">B25^2*PI()/4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D25" s="4" t="e">
+        <f ca="1">B25*3.14</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E25" s="18">
+        <v>9</v>
+      </c>
+      <c r="F25" s="105">
+        <v>50</v>
+      </c>
+      <c r="G25" s="105">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>13</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="23" t="e">
+        <f ca="1">1/3*300*C25*F25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L25" s="22" t="e">
+        <f ca="1">1/3*(G25*H25*10/3+1/2*I25*J25)*D25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M25" s="23" t="e">
+        <f ca="1">+K25+L25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N25" s="23" t="e">
+        <f ca="1">M25*2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="str">
+        <f>A9</f>
+        <v>PHC50B</v>
+      </c>
+      <c r="B26" s="21" t="e">
+        <f ca="1">[1]!Pile(A26, 1)/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C26" s="28" t="e">
+        <f ca="1">B26^2*PI()/4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D26" s="4" t="e">
+        <f ca="1">B26*3.14</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E26" s="18">
+        <v>9</v>
+      </c>
+      <c r="F26" s="105">
+        <v>50</v>
+      </c>
+      <c r="G26" s="105">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>13</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="23" t="e">
+        <f ca="1">1/3*300*C26*F26</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L26" s="22" t="e">
+        <f ca="1">1/3*(G26*H26*10/3+1/2*I26*J26)*D26</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M26" s="23" t="e">
+        <f ca="1">+K26+L26</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N26" s="23" t="e">
+        <f ca="1">M26*2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="str">
+        <f>A10</f>
+        <v>PHC60B</v>
+      </c>
+      <c r="B27" s="21" t="e">
+        <f ca="1">[1]!Pile(A27, 1)/1000</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C27" s="28" t="e">
+        <f ca="1">B27^2*PI()/4</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D27" s="4" t="e">
+        <f ca="1">B27*3.14</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E27" s="18">
+        <v>9</v>
+      </c>
+      <c r="F27" s="105">
+        <v>50</v>
+      </c>
+      <c r="G27" s="105">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>13</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="23" t="e">
+        <f ca="1">1/3*300*C27*F27</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L27" s="22" t="e">
+        <f ca="1">1/3*(G27*H27*10/3+1/2*I27*J27)*D27</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M27" s="23" t="e">
+        <f ca="1">+K27+L27</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N27" s="23" t="e">
+        <f ca="1">M27*2</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A28" s="155"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="J30" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A31" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="26"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="K33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="24"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="E36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B38" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="103">
+        <f>G38/8.2</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D40" s="19"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="F57" s="4"/>
+      <c r="I57" s="19"/>
+      <c r="K57" s="19"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="K59" s="19"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F61" s="19"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="25"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J86" s="4"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A89" s="19"/>
+      <c r="J89" s="19"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A90" s="19"/>
+      <c r="J90" s="19"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A91" s="19"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A92" s="19"/>
+      <c r="B92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="J92" s="19"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A93" s="19"/>
+      <c r="E93" s="25"/>
+      <c r="J93" s="19"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B94" s="25"/>
+      <c r="J94" s="19"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A95" s="19"/>
+      <c r="E95" s="25"/>
+      <c r="J95" s="19"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A96" s="19"/>
+      <c r="B96" s="25"/>
+      <c r="E96" s="4"/>
+      <c r="J96" s="19"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97" s="19"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="F97" s="25"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A103" s="5"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A104" s="5"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105" s="5"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="37"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="A21:C21"/>
@@ -13561,1414 +15128,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="7.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="B6" s="18">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 12)*100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="4" t="e">
-        <f ca="1">[2]!Pile(A6, 22)*10*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F6" s="104" t="e">
-        <f ca="1">[2]!Pile(A6, 25)*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6,2,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H6" s="21" t="e">
-        <f ca="1">1-(IF(0&gt;+B6*1000/C6-$E$19,0,(B6*1000/C6-$E$19)/100))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 3,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 3, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="20" t="e">
-        <f ca="1">(I6-G6)*D6*H6/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L6" s="20" t="e">
-        <f ca="1">(J6-G6)*D6*H6/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M6" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 4, 1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N6" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A6, 4, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="B7" s="18">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 12)*100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="4" t="e">
-        <f ca="1">[2]!Pile(A7, 22)*10*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F7" s="104" t="e">
-        <f ca="1">[2]!Pile(A7, 25)*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7,2,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H7" s="21" t="e">
-        <f ca="1">1-(IF(0&gt;+B7*1000/C7-$E$19,0,(B7*1000/C7-$E$19)/100))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 3,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 3, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="20" t="e">
-        <f ca="1">(I7-G7)*D7*H7/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L7" s="20" t="e">
-        <f ca="1">(J7-G7)*D7*H7/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M7" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 4, 1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N7" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A7, 4, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="B8" s="18">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 12)*100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="4" t="e">
-        <f ca="1">[2]!Pile(A8, 22)*10*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F8" s="104" t="e">
-        <f ca="1">[2]!Pile(A8, 25)*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8,2,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="21" t="e">
-        <f ca="1">1-(IF(0&gt;+B8*1000/C8-$E$19,0,(B8*1000/C8-$E$19)/100))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 3,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 3, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="20" t="e">
-        <f ca="1">(I8-G8)*D8*H8/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L8" s="20" t="e">
-        <f ca="1">(J8-G8)*D8*H8/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M8" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 4, 1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N8" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A8, 4, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="B9" s="18">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 12)*100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" s="4" t="e">
-        <f ca="1">[2]!Pile(A9, 22)*10*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="104" t="e">
-        <f ca="1">[2]!Pile(A9, 25)*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9,2,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H9" s="21" t="e">
-        <f ca="1">1-(IF(0&gt;+B9*1000/C9-$E$19,0,(B9*1000/C9-$E$19)/100))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 3,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 3, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="20" t="e">
-        <f ca="1">(I9-G9)*D9*H9/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L9" s="20" t="e">
-        <f ca="1">(J9-G9)*D9*H9/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M9" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 4, 1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N9" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A9, 4, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="B10" s="18">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 12)*100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E10" s="4" t="e">
-        <f ca="1">[2]!Pile(A10, 22)*10*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F10" s="104" t="e">
-        <f ca="1">[2]!Pile(A10, 25)*10*10*10</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10,2,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H10" s="21" t="e">
-        <f ca="1">1-(IF(0&gt;+B10*1000/C10-$E$19,0,(B10*1000/C10-$E$19)/100))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 3,1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="20" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 3, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="20" t="e">
-        <f ca="1">(I10-G10)*D10*H10/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L10" s="20" t="e">
-        <f ca="1">(J10-G10)*D10*H10/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M10" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 4, 1)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N10" s="35" t="e">
-        <f ca="1">[2]!PilePcFx(A10, 4, 2)*9.80665/100</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A11" s="162"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-    </row>
-    <row r="12" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="201" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="203" t="s">
-        <v>220</v>
-      </c>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="201" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="203" t="s">
-        <v>222</v>
-      </c>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="201" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="203" t="s">
-        <v>224</v>
-      </c>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" s="204" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="205"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="201" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="203" t="s">
-        <v>226</v>
-      </c>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="204" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="205"/>
-      <c r="S15" s="26"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="25"/>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="201" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="203" t="s">
-        <v>228</v>
-      </c>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD16" s="25"/>
-    </row>
-    <row r="17" spans="1:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="203" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="203" t="s">
-        <v>230</v>
-      </c>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="25"/>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="201" t="s">
-        <v>231</v>
-      </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="202"/>
-      <c r="E18" s="201" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="202"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="25"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="201" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="202"/>
-      <c r="E19" s="25">
-        <v>85</v>
-      </c>
-      <c r="AC19" s="19"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="S20" s="26"/>
-      <c r="AD20" s="25"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A21" s="203" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="str">
-        <f>A6</f>
-        <v>PHC30A</v>
-      </c>
-      <c r="B23" s="21" t="e">
-        <f ca="1">[2]!Pile(A23, 1)/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C23" s="28" t="e">
-        <f ca="1">B23^2*PI()/4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D23" s="4" t="e">
-        <f ca="1">B23*3.14</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E23" s="18">
-        <v>9</v>
-      </c>
-      <c r="F23" s="105">
-        <v>50</v>
-      </c>
-      <c r="G23" s="105">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>13</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0</v>
-      </c>
-      <c r="K23" s="23" t="e">
-        <f ca="1">1/3*300*C23*F23</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L23" s="22" t="e">
-        <f ca="1">1/3*(G23*H23*10/3+1/2*I23*J23)*D23</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M23" s="23" t="e">
-        <f ca="1">+K23+L23</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N23" s="23" t="e">
-        <f ca="1">M23*2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P23" s="3">
-        <f>1*1*20*2</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A24" s="27" t="str">
-        <f>A7</f>
-        <v>PHC35B</v>
-      </c>
-      <c r="B24" s="21" t="e">
-        <f ca="1">[2]!Pile(A24, 1)/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C24" s="28" t="e">
-        <f ca="1">B24^2*PI()/4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D24" s="4" t="e">
-        <f ca="1">B24*3.14</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E24" s="18">
-        <v>9</v>
-      </c>
-      <c r="F24" s="105">
-        <v>50</v>
-      </c>
-      <c r="G24" s="105">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>13</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="18">
-        <v>0</v>
-      </c>
-      <c r="K24" s="23" t="e">
-        <f ca="1">1/3*200*C24*F24</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L24" s="22" t="e">
-        <f ca="1">1/3*(G24*H24*10/3+1/2*I24*J24)*D24</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M24" s="23" t="e">
-        <f ca="1">+K24+L24</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N24" s="23" t="e">
-        <f ca="1">M24*2</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A25" s="27" t="str">
-        <f>A8</f>
-        <v>PHC45B</v>
-      </c>
-      <c r="B25" s="21" t="e">
-        <f ca="1">[2]!Pile(A25, 1)/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C25" s="28" t="e">
-        <f ca="1">B25^2*PI()/4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D25" s="4" t="e">
-        <f ca="1">B25*3.14</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E25" s="18">
-        <v>9</v>
-      </c>
-      <c r="F25" s="105">
-        <v>50</v>
-      </c>
-      <c r="G25" s="105">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>13</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="18">
-        <v>0</v>
-      </c>
-      <c r="K25" s="23" t="e">
-        <f ca="1">1/3*300*C25*F25</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L25" s="22" t="e">
-        <f ca="1">1/3*(G25*H25*10/3+1/2*I25*J25)*D25</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M25" s="23" t="e">
-        <f ca="1">+K25+L25</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N25" s="23" t="e">
-        <f ca="1">M25*2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="str">
-        <f>A9</f>
-        <v>PHC50B</v>
-      </c>
-      <c r="B26" s="21" t="e">
-        <f ca="1">[2]!Pile(A26, 1)/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C26" s="28" t="e">
-        <f ca="1">B26^2*PI()/4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D26" s="4" t="e">
-        <f ca="1">B26*3.14</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E26" s="18">
-        <v>9</v>
-      </c>
-      <c r="F26" s="105">
-        <v>50</v>
-      </c>
-      <c r="G26" s="105">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>13</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
-      <c r="J26" s="18">
-        <v>0</v>
-      </c>
-      <c r="K26" s="23" t="e">
-        <f ca="1">1/3*300*C26*F26</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L26" s="22" t="e">
-        <f ca="1">1/3*(G26*H26*10/3+1/2*I26*J26)*D26</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M26" s="23" t="e">
-        <f ca="1">+K26+L26</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N26" s="23" t="e">
-        <f ca="1">M26*2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="str">
-        <f>A10</f>
-        <v>PHC60B</v>
-      </c>
-      <c r="B27" s="21" t="e">
-        <f ca="1">[2]!Pile(A27, 1)/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C27" s="28" t="e">
-        <f ca="1">B27^2*PI()/4</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D27" s="4" t="e">
-        <f ca="1">B27*3.14</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E27" s="18">
-        <v>9</v>
-      </c>
-      <c r="F27" s="105">
-        <v>50</v>
-      </c>
-      <c r="G27" s="105">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>13</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="J27" s="18">
-        <v>0</v>
-      </c>
-      <c r="K27" s="23" t="e">
-        <f ca="1">1/3*300*C27*F27</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L27" s="22" t="e">
-        <f ca="1">1/3*(G27*H27*10/3+1/2*I27*J27)*D27</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M27" s="23" t="e">
-        <f ca="1">+K27+L27</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N27" s="23" t="e">
-        <f ca="1">M27*2</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A30" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="J30" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A31" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="K33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S34" s="26"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A35" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" s="24"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A36" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="E36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B38" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C39" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="103">
-        <f>G38/8.2</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D40" s="19"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="19"/>
-      <c r="F57" s="4"/>
-      <c r="I57" s="19"/>
-      <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="19"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F61" s="19"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="25"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="10"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A84" s="4"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="J86" s="4"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A89" s="19"/>
-      <c r="J89" s="19"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A90" s="19"/>
-      <c r="J90" s="19"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A91" s="19"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A92" s="19"/>
-      <c r="B92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="J92" s="19"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A93" s="19"/>
-      <c r="E93" s="25"/>
-      <c r="J93" s="19"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B94" s="25"/>
-      <c r="J94" s="19"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A95" s="19"/>
-      <c r="E95" s="25"/>
-      <c r="J95" s="19"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A96" s="19"/>
-      <c r="B96" s="25"/>
-      <c r="E96" s="4"/>
-      <c r="J96" s="19"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A97" s="19"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="F97" s="25"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="Q101" s="5"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="Q102" s="5"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A103" s="5"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="30"/>
-      <c r="O103" s="30"/>
-      <c r="Q103" s="5"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A104" s="5"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="30"/>
-      <c r="O104" s="30"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A105" s="5"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="30"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="30"/>
-      <c r="O105" s="30"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AD39"/>
   <sheetViews>
@@ -17808,7 +17969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AA39"/>
   <sheetViews>
@@ -20524,7 +20685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AP39"/>
   <sheetViews>
@@ -24928,7 +25089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W97"/>
   <sheetViews>
@@ -25383,7 +25544,7 @@
         <v>39226.6</v>
       </c>
       <c r="E25" s="19" t="e">
-        <f ca="1">[2]!Pile(A25, 22)*10000</f>
+        <f ca="1">[1]!Pile(A25, 22)*10000</f>
         <v>#NAME?</v>
       </c>
       <c r="F25" s="18">
@@ -25401,11 +25562,11 @@
         <v>3.4323274999999995</v>
       </c>
       <c r="J25" s="34" t="e">
-        <f ca="1">[2]!PileKh(B25/10, I25*100/9.80665)*9.80665/1000</f>
+        <f ca="1">[1]!PileKh(B25/10, I25*100/9.80665)*9.80665/1000</f>
         <v>#NAME?</v>
       </c>
       <c r="K25" s="95" t="e">
-        <f ca="1">[2]!PileBeta(B25/10, J25*1000/9.80665, D25*100/9.80665)*10</f>
+        <f ca="1">[1]!PileBeta(B25/10, J25*1000/9.80665, D25*100/9.80665)*10</f>
         <v>#NAME?</v>
       </c>
       <c r="L25" s="4" t="e">
@@ -25413,23 +25574,23 @@
         <v>#NAME?</v>
       </c>
       <c r="M25" s="28" t="e">
-        <f ca="1">[2]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, F25,0 )*10</f>
+        <f ca="1">[1]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, F25,0 )*10</f>
         <v>#NAME?</v>
       </c>
       <c r="N25" s="20" t="e">
-        <f ca="1">[2]!Chang1(E25*100/9.80665, K25/10, D25/10000, H25/9.80665, 3, F25, )*9.80665</f>
+        <f ca="1">[1]!Chang1(E25*100/9.80665, K25/10, D25/10000, H25/9.80665, 3, F25, )*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="O25" s="20" t="e">
-        <f ca="1">[2]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, 4, F25, )*9.80665</f>
+        <f ca="1">[1]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, 4, F25, )*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="P25" s="21" t="e">
-        <f ca="1">[2]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, 5, F25, )</f>
+        <f ca="1">[1]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, 5, F25, )</f>
         <v>#NAME?</v>
       </c>
       <c r="Q25" s="21" t="e">
-        <f ca="1">[2]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, 6, F25, )</f>
+        <f ca="1">[1]!Chang1(E25/10000, K25/10, D25*100/9.80665, H25/9.80665, 6, F25, )</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -25449,7 +25610,7 @@
         <v>39226.6</v>
       </c>
       <c r="E26" s="19" t="e">
-        <f ca="1">[2]!Pile(A26, 22)*10000</f>
+        <f ca="1">[1]!Pile(A26, 22)*10000</f>
         <v>#NAME?</v>
       </c>
       <c r="F26" s="18">
@@ -25467,11 +25628,11 @@
         <v>3.4323274999999995</v>
       </c>
       <c r="J26" s="34" t="e">
-        <f ca="1">[2]!PileKh(B26/10, I26*100/9.80665)*9.80665/1000</f>
+        <f ca="1">[1]!PileKh(B26/10, I26*100/9.80665)*9.80665/1000</f>
         <v>#NAME?</v>
       </c>
       <c r="K26" s="95" t="e">
-        <f ca="1">[2]!PileBeta(B26/10, J26*1000/9.80665, D26*100/9.80665)*10</f>
+        <f ca="1">[1]!PileBeta(B26/10, J26*1000/9.80665, D26*100/9.80665)*10</f>
         <v>#NAME?</v>
       </c>
       <c r="L26" s="4" t="e">
@@ -25479,23 +25640,23 @@
         <v>#NAME?</v>
       </c>
       <c r="M26" s="28" t="e">
-        <f ca="1">[2]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, F26,0 )*10</f>
+        <f ca="1">[1]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, F26,0 )*10</f>
         <v>#NAME?</v>
       </c>
       <c r="N26" s="20" t="e">
-        <f ca="1">[2]!Chang1(E26*100/9.80665, K26/10, D26/10000, H26/9.80665, 3, F26, )*9.80665</f>
+        <f ca="1">[1]!Chang1(E26*100/9.80665, K26/10, D26/10000, H26/9.80665, 3, F26, )*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="O26" s="20" t="e">
-        <f ca="1">[2]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, 4, F26, )*9.80665</f>
+        <f ca="1">[1]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, 4, F26, )*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="P26" s="21" t="e">
-        <f ca="1">[2]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, 5, F26, )</f>
+        <f ca="1">[1]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, 5, F26, )</f>
         <v>#NAME?</v>
       </c>
       <c r="Q26" s="21" t="e">
-        <f ca="1">[2]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, 6, F26, )</f>
+        <f ca="1">[1]!Chang1(E26/10000, K26/10, D26*100/9.80665, H26/9.80665, 6, F26, )</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -25515,7 +25676,7 @@
         <v>39226.6</v>
       </c>
       <c r="E27" s="19" t="e">
-        <f ca="1">[2]!Pile(A27, 22)*10000</f>
+        <f ca="1">[1]!Pile(A27, 22)*10000</f>
         <v>#NAME?</v>
       </c>
       <c r="F27" s="18">
@@ -25533,11 +25694,11 @@
         <v>3.4323274999999995</v>
       </c>
       <c r="J27" s="34" t="e">
-        <f ca="1">[2]!PileKh(B27/10, I27*100/9.80665)*9.80665/1000</f>
+        <f ca="1">[1]!PileKh(B27/10, I27*100/9.80665)*9.80665/1000</f>
         <v>#NAME?</v>
       </c>
       <c r="K27" s="95" t="e">
-        <f ca="1">[2]!PileBeta(B27/10, J27*1000/9.80665, D27*100/9.80665)*10</f>
+        <f ca="1">[1]!PileBeta(B27/10, J27*1000/9.80665, D27*100/9.80665)*10</f>
         <v>#NAME?</v>
       </c>
       <c r="L27" s="4" t="e">
@@ -25545,23 +25706,23 @@
         <v>#NAME?</v>
       </c>
       <c r="M27" s="28" t="e">
-        <f ca="1">[2]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, F27,0 )*10</f>
+        <f ca="1">[1]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, F27,0 )*10</f>
         <v>#NAME?</v>
       </c>
       <c r="N27" s="20" t="e">
-        <f ca="1">[2]!Chang1(E27*100/9.80665, K27/10, D27/10000, H27/9.80665, 3, F27, )*9.80665</f>
+        <f ca="1">[1]!Chang1(E27*100/9.80665, K27/10, D27/10000, H27/9.80665, 3, F27, )*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="O27" s="20" t="e">
-        <f ca="1">[2]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, 4, F27, )*9.80665</f>
+        <f ca="1">[1]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, 4, F27, )*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="P27" s="21" t="e">
-        <f ca="1">[2]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, 5, F27, )</f>
+        <f ca="1">[1]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, 5, F27, )</f>
         <v>#NAME?</v>
       </c>
       <c r="Q27" s="21" t="e">
-        <f ca="1">[2]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, 6, F27, )</f>
+        <f ca="1">[1]!Chang1(E27/10000, K27/10, D27*100/9.80665, H27/9.80665, 6, F27, )</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -25708,11 +25869,11 @@
       <c r="A36" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="201" t="s">
+      <c r="B36" s="204" t="s">
         <v>338</v>
       </c>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
       <c r="E36" s="25" t="s">
         <v>335</v>
       </c>
@@ -25845,7 +26006,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D43" s="79" t="e">
-        <f ca="1">[2]!PilePcMa(A43, B43/9.80665, 2)*9.80665</f>
+        <f ca="1">[1]!PilePcMa(A43, B43/9.80665, 2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="E43" s="79" t="e">
@@ -25857,7 +26018,7 @@
         <v>151.9863</v>
       </c>
       <c r="G43" s="79" t="e">
-        <f ca="1">[2]!PilePcQa(A43, B43/9.80665,2)*9.80665</f>
+        <f ca="1">[1]!PilePcQa(A43, B43/9.80665,2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="H43" s="79" t="e">
@@ -25873,7 +26034,7 @@
         <v>#NAME?</v>
       </c>
       <c r="K43" s="79" t="e">
-        <f ca="1">[2]!PilePcMa(A43, I43/9.80665, 2)*9.80665</f>
+        <f ca="1">[1]!PilePcMa(A43, I43/9.80665, 2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="L43" s="79" t="e">
@@ -25885,7 +26046,7 @@
         <v>151.9863</v>
       </c>
       <c r="N43" s="79" t="e">
-        <f ca="1">[2]!PilePcQa(A43, I43/9.80665,2)*9.80665</f>
+        <f ca="1">[1]!PilePcQa(A43, I43/9.80665,2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="O43" s="30" t="e">
@@ -25908,7 +26069,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D44" s="79" t="e">
-        <f ca="1">[2]!PilePcMa(A44, B44/9.80665, 2)*9.80665</f>
+        <f ca="1">[1]!PilePcMa(A44, B44/9.80665, 2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="E44" s="79" t="e">
@@ -25920,7 +26081,7 @@
         <v>151.9863</v>
       </c>
       <c r="G44" s="79" t="e">
-        <f ca="1">[2]!PilePcQa(A44, B44/9.80665,2)*9.80665</f>
+        <f ca="1">[1]!PilePcQa(A44, B44/9.80665,2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="H44" s="79" t="e">
@@ -25936,7 +26097,7 @@
         <v>#NAME?</v>
       </c>
       <c r="K44" s="79" t="e">
-        <f ca="1">[2]!PilePcMa(A44, I44/9.80665, 2)*9.80665</f>
+        <f ca="1">[1]!PilePcMa(A44, I44/9.80665, 2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="L44" s="79" t="e">
@@ -25948,7 +26109,7 @@
         <v>151.9863</v>
       </c>
       <c r="N44" s="79" t="e">
-        <f ca="1">[2]!PilePcQa(A44, I44/9.80665,2)*9.80665</f>
+        <f ca="1">[1]!PilePcQa(A44, I44/9.80665,2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="O44" s="30" t="e">
@@ -25971,7 +26132,7 @@
         <v>#NAME?</v>
       </c>
       <c r="D45" s="79" t="e">
-        <f ca="1">[2]!PilePcMa(A45, B45/9.80665, 2)*9.80665</f>
+        <f ca="1">[1]!PilePcMa(A45, B45/9.80665, 2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="E45" s="79" t="e">
@@ -25983,7 +26144,7 @@
         <v>147.77431147540983</v>
       </c>
       <c r="G45" s="79" t="e">
-        <f ca="1">[2]!PilePcQa(A45, B45/9.80665,2)*9.80665</f>
+        <f ca="1">[1]!PilePcQa(A45, B45/9.80665,2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="H45" s="79" t="e">
@@ -25999,7 +26160,7 @@
         <v>#NAME?</v>
       </c>
       <c r="K45" s="79" t="e">
-        <f ca="1">[2]!PilePcMa(A45, I45/9.80665, 2)*9.80665</f>
+        <f ca="1">[1]!PilePcMa(A45, I45/9.80665, 2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="L45" s="79" t="e">
@@ -26011,7 +26172,7 @@
         <v>147.77431147540983</v>
       </c>
       <c r="N45" s="79" t="e">
-        <f ca="1">[2]!PilePcQa(A45, I45/9.80665,2)*9.80665</f>
+        <f ca="1">[1]!PilePcQa(A45, I45/9.80665,2)*9.80665</f>
         <v>#NAME?</v>
       </c>
       <c r="O45" s="30" t="e">
@@ -26281,7 +26442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:M104"/>
   <sheetViews>
@@ -26304,17 +26465,17 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="224" t="s">
         <v>562</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="229" t="s">
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="218" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -26353,12 +26514,12 @@
         <v>180</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="209" t="s">
+      <c r="E5" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="221"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="217"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
@@ -26371,12 +26532,12 @@
         <v>566</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="206" t="s">
+      <c r="E6" s="220" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="208"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="213"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
@@ -26387,14 +26548,14 @@
       <c r="B7" s="11"/>
       <c r="C7" s="57"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="211"/>
-      <c r="G7" s="220" t="s">
+      <c r="F7" s="215"/>
+      <c r="G7" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="211"/>
+      <c r="H7" s="215"/>
       <c r="I7" s="8"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -26411,16 +26572,16 @@
       <c r="D8" s="169" t="s">
         <v>568</v>
       </c>
-      <c r="E8" s="226">
+      <c r="E8" s="221">
         <f>G4/3</f>
         <v>7</v>
       </c>
-      <c r="F8" s="227"/>
-      <c r="G8" s="228">
+      <c r="F8" s="222"/>
+      <c r="G8" s="223">
         <f>E8*2</f>
         <v>14</v>
       </c>
-      <c r="H8" s="227"/>
+      <c r="H8" s="222"/>
       <c r="I8" s="8"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -26437,16 +26598,16 @@
       <c r="D9" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E9" s="209">
+      <c r="E9" s="214">
         <f>G4/30</f>
         <v>0.7</v>
       </c>
-      <c r="F9" s="221"/>
-      <c r="G9" s="220">
+      <c r="F9" s="217"/>
+      <c r="G9" s="216">
         <f>E9*1.5</f>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H9" s="221"/>
+      <c r="H9" s="217"/>
       <c r="I9" s="8"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -26463,14 +26624,14 @@
       <c r="D10" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="222">
+      <c r="E10" s="206">
         <v>1503</v>
       </c>
-      <c r="F10" s="223"/>
-      <c r="G10" s="224">
+      <c r="F10" s="207"/>
+      <c r="G10" s="208">
         <v>1933</v>
       </c>
-      <c r="H10" s="225"/>
+      <c r="H10" s="209"/>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -26485,14 +26646,14 @@
         <v>573</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" s="215">
+      <c r="E11" s="210">
         <v>1</v>
       </c>
-      <c r="F11" s="216"/>
-      <c r="G11" s="207">
+      <c r="F11" s="211"/>
+      <c r="G11" s="212">
         <v>1</v>
       </c>
-      <c r="H11" s="208"/>
+      <c r="H11" s="213"/>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -26500,11 +26661,11 @@
       <c r="M11" s="9"/>
     </row>
     <row r="12" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="224" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="7" t="s">
         <v>574</v>
       </c>
@@ -26737,11 +26898,11 @@
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
       <c r="E20" s="182">
         <f>+E19/E9</f>
         <v>0.52433281004709575</v>
@@ -26765,11 +26926,11 @@
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="220" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="207"/>
-      <c r="D21" s="208"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
       <c r="E21" s="184" t="str">
         <f>IF(E20&lt;1,"OK","NG")</f>
         <v>OK</v>
@@ -26855,11 +27016,11 @@
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="215"/>
       <c r="E24" s="170" t="s">
         <v>593</v>
       </c>
@@ -26891,19 +27052,19 @@
         <v>568</v>
       </c>
       <c r="E25" s="7" t="e">
-        <f ca="1">IF([1]!Bar(E24, 1)*10&lt;16,[1]!BarFt(E24, 1, $E5)/10,[1]!BarFt(E24, 1, $E6)/10)</f>
+        <f ca="1">IF([3]!Bar(E24, 1)*10&lt;16,[3]!BarFt(E24, 1, $E5)/10,[3]!BarFt(E24, 1, $E6)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="F25" s="171" t="e">
-        <f ca="1">IF([1]!Bar(F24, 1)*10&lt;16,[1]!BarFt(F24, 1, $E5)/10,[1]!BarFt(F24, 1, $E6)/10)</f>
+        <f ca="1">IF([3]!Bar(F24, 1)*10&lt;16,[3]!BarFt(F24, 1, $E5)/10,[3]!BarFt(F24, 1, $E6)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="G25" s="6" t="e">
-        <f ca="1">IF([1]!Bar(G24, 1)*10&lt;16,[1]!BarFt(G24, 2, $E5)/10,[1]!BarFt(G24, 2, $E6)/10)</f>
+        <f ca="1">IF([3]!Bar(G24, 1)*10&lt;16,[3]!BarFt(G24, 2, $E5)/10,[3]!BarFt(G24, 2, $E6)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="H25" s="7" t="e">
-        <f ca="1">IF([1]!Bar(H24, 1)*10&lt;16,[1]!BarFt(H24, 2, $E5)/10,[1]!BarFt(H24, 2, $E6)/10)</f>
+        <f ca="1">IF([3]!Bar(H24, 1)*10&lt;16,[3]!BarFt(H24, 2, $E5)/10,[3]!BarFt(H24, 2, $E6)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="I25" s="8"/>
@@ -26923,19 +27084,19 @@
         <v>580</v>
       </c>
       <c r="E26" s="78" t="e">
-        <f ca="1">[1]!Bar(E24, 11)*100</f>
+        <f ca="1">[3]!Bar(E24, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="F26" s="177" t="e">
-        <f ca="1">[1]!Bar(F24, 11)*100</f>
+        <f ca="1">[3]!Bar(F24, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="G26" s="79" t="e">
-        <f ca="1">[1]!Bar(G24, 11)*100</f>
+        <f ca="1">[3]!Bar(G24, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="H26" s="78" t="e">
-        <f ca="1">[1]!Bar(H24, 11)*100</f>
+        <f ca="1">[3]!Bar(H24, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="I26" s="8"/>
@@ -26977,11 +27138,11 @@
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="209" t="s">
+      <c r="B28" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="211"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="215"/>
       <c r="E28" s="191" t="e">
         <f ca="1">E27/E25</f>
         <v>#NAME?</v>
@@ -27005,11 +27166,11 @@
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="212" t="s">
+      <c r="B29" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="227"/>
       <c r="E29" s="193" t="e">
         <f ca="1">IF(E28&lt;1,"OK","NG")</f>
         <v>#NAME?</v>
@@ -27071,19 +27232,19 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="189" t="e">
-        <f ca="1">MIN((E13-80*2-[1]!Bar(E24,12)*10/PI())/(([1]!Bar(E24,2)-1)),80*3,[1]!Bar(E24,1)*5*10)</f>
+        <f ca="1">MIN((E13-80*2-[3]!Bar(E24,12)*10/PI())/(([3]!Bar(E24,2)-1)),80*3,[3]!Bar(E24,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="F31" s="189" t="e">
-        <f ca="1">MIN((F13-80*2-[1]!Bar(F24,12)*10/PI())/(([1]!Bar(F24,2)-1)),80*3,[1]!Bar(F24,1)*5*10)</f>
+        <f ca="1">MIN((F13-80*2-[3]!Bar(F24,12)*10/PI())/(([3]!Bar(F24,2)-1)),80*3,[3]!Bar(F24,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="G31" s="189" t="e">
-        <f ca="1">MIN((G13-80*2-[1]!Bar(G24,12)*10/PI())/(([1]!Bar(G24,2)-1)),80*3,[1]!Bar(G24,1)*5*10)</f>
+        <f ca="1">MIN((G13-80*2-[3]!Bar(G24,12)*10/PI())/(([3]!Bar(G24,2)-1)),80*3,[3]!Bar(G24,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="H31" s="189" t="e">
-        <f ca="1">MIN((H13-80*2-[1]!Bar(H24,12)*10/PI())/(([1]!Bar(H24,2)-1)),80*3,[1]!Bar(H24,1)*5*10)</f>
+        <f ca="1">MIN((H13-80*2-[3]!Bar(H24,12)*10/PI())/(([3]!Bar(H24,2)-1)),80*3,[3]!Bar(H24,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="I31" s="8"/>
@@ -27099,19 +27260,19 @@
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="182" t="e">
-        <f ca="1">0.3*E31/([1]!Bar(E24,1)*10)+0.4</f>
+        <f ca="1">0.3*E31/([3]!Bar(E24,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="F32" s="183" t="e">
-        <f ca="1">0.3*F31/([1]!Bar(F24,1)*10)+0.4</f>
+        <f ca="1">0.3*F31/([3]!Bar(F24,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="G32" s="37" t="e">
-        <f ca="1">0.3*G31/([1]!Bar(G24,1)*10)+0.4</f>
+        <f ca="1">0.3*G31/([3]!Bar(G24,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="H32" s="183" t="e">
-        <f ca="1">0.3*H31/([1]!Bar(H24,1)*10)+0.4</f>
+        <f ca="1">0.3*H31/([3]!Bar(H24,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="I32" s="8"/>
@@ -27159,19 +27320,19 @@
         <v>586</v>
       </c>
       <c r="E34" s="189" t="e">
-        <f ca="1">[1]!Bar(E24,1)*10/4</f>
+        <f ca="1">[3]!Bar(E24,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="F34" s="190" t="e">
-        <f ca="1">[1]!Bar(F24,1)*10/4</f>
+        <f ca="1">[3]!Bar(F24,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="G34" s="164" t="e">
-        <f ca="1">[1]!Bar(G24,1)*10/4</f>
+        <f ca="1">[3]!Bar(G24,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="H34" s="190" t="e">
-        <f ca="1">[1]!Bar(H24,1)*10/4</f>
+        <f ca="1">[3]!Bar(H24,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="I34" s="8"/>
@@ -27217,17 +27378,17 @@
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="217" t="s">
+      <c r="B37" s="224" t="s">
         <v>562</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-      <c r="E37" s="229" t="s">
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
+      <c r="E37" s="218" t="s">
         <v>590</v>
       </c>
-      <c r="F37" s="218"/>
-      <c r="G37" s="218"/>
-      <c r="H37" s="218"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
@@ -27266,12 +27427,12 @@
         <v>180</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="209" t="s">
+      <c r="E39" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="221"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="217"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="6"/>
@@ -27284,12 +27445,12 @@
         <v>566</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="206" t="s">
+      <c r="E40" s="220" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="208"/>
+      <c r="F40" s="212"/>
+      <c r="G40" s="212"/>
+      <c r="H40" s="213"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="6"/>
@@ -27300,14 +27461,14 @@
       <c r="B41" s="11"/>
       <c r="C41" s="57"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="209" t="s">
+      <c r="E41" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="211"/>
-      <c r="G41" s="220" t="s">
+      <c r="F41" s="215"/>
+      <c r="G41" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="211"/>
+      <c r="H41" s="215"/>
       <c r="I41" s="8"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -27324,16 +27485,16 @@
       <c r="D42" s="169" t="s">
         <v>568</v>
       </c>
-      <c r="E42" s="226">
+      <c r="E42" s="221">
         <f>G38/3</f>
         <v>7</v>
       </c>
-      <c r="F42" s="227"/>
-      <c r="G42" s="228">
+      <c r="F42" s="222"/>
+      <c r="G42" s="223">
         <f>E42*2</f>
         <v>14</v>
       </c>
-      <c r="H42" s="227"/>
+      <c r="H42" s="222"/>
       <c r="I42" s="8"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -27350,16 +27511,16 @@
       <c r="D43" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E43" s="209">
+      <c r="E43" s="214">
         <f>G38/30</f>
         <v>0.7</v>
       </c>
-      <c r="F43" s="221"/>
-      <c r="G43" s="220">
+      <c r="F43" s="217"/>
+      <c r="G43" s="216">
         <f>E43*1.5</f>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H43" s="221"/>
+      <c r="H43" s="217"/>
       <c r="I43" s="8"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -27376,14 +27537,14 @@
       <c r="D44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="222">
+      <c r="E44" s="206">
         <v>2056</v>
       </c>
-      <c r="F44" s="223"/>
-      <c r="G44" s="224">
+      <c r="F44" s="207"/>
+      <c r="G44" s="208">
         <v>2516</v>
       </c>
-      <c r="H44" s="225"/>
+      <c r="H44" s="209"/>
       <c r="I44" s="8"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -27398,15 +27559,15 @@
         <v>573</v>
       </c>
       <c r="D45" s="13"/>
-      <c r="E45" s="215">
+      <c r="E45" s="210">
         <v>1</v>
       </c>
-      <c r="F45" s="216"/>
-      <c r="G45" s="207">
+      <c r="F45" s="211"/>
+      <c r="G45" s="212">
         <f>E45</f>
         <v>1</v>
       </c>
-      <c r="H45" s="208"/>
+      <c r="H45" s="213"/>
       <c r="I45" s="8"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -27414,11 +27575,11 @@
       <c r="M45" s="9"/>
     </row>
     <row r="46" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="217" t="s">
+      <c r="B46" s="224" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="218"/>
-      <c r="D46" s="219"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="228"/>
       <c r="E46" s="7" t="s">
         <v>574</v>
       </c>
@@ -27651,11 +27812,11 @@
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="209" t="s">
+      <c r="B54" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="220"/>
-      <c r="D54" s="221"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
       <c r="E54" s="182">
         <f>+E53/E43</f>
         <v>0.71725100296528888</v>
@@ -27679,11 +27840,11 @@
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="206" t="s">
+      <c r="B55" s="220" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="207"/>
-      <c r="D55" s="208"/>
+      <c r="C55" s="212"/>
+      <c r="D55" s="213"/>
       <c r="E55" s="184" t="str">
         <f>IF(E54&lt;1,"OK","NG")</f>
         <v>OK</v>
@@ -27769,11 +27930,11 @@
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="209" t="s">
+      <c r="B58" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="210"/>
-      <c r="D58" s="211"/>
+      <c r="C58" s="229"/>
+      <c r="D58" s="215"/>
       <c r="E58" s="170" t="s">
         <v>591</v>
       </c>
@@ -27805,19 +27966,19 @@
         <v>568</v>
       </c>
       <c r="E59" s="7" t="e">
-        <f ca="1">IF([1]!Bar(E58, 1)*10&lt;16,[1]!BarFt(E58, 1, $E39)/10,[1]!BarFt(E58, 1, $E40)/10)</f>
+        <f ca="1">IF([3]!Bar(E58, 1)*10&lt;16,[3]!BarFt(E58, 1, $E39)/10,[3]!BarFt(E58, 1, $E40)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="F59" s="171" t="e">
-        <f ca="1">IF([1]!Bar(F58, 1)*10&lt;16,[1]!BarFt(F58, 1, $E39)/10,[1]!BarFt(F58, 1, $E40)/10)</f>
+        <f ca="1">IF([3]!Bar(F58, 1)*10&lt;16,[3]!BarFt(F58, 1, $E39)/10,[3]!BarFt(F58, 1, $E40)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="G59" s="6" t="e">
-        <f ca="1">IF([1]!Bar(G58, 1)*10&lt;16,[1]!BarFt(G58, 2, $E39)/10,[1]!BarFt(G58, 2, $E40)/10)</f>
+        <f ca="1">IF([3]!Bar(G58, 1)*10&lt;16,[3]!BarFt(G58, 2, $E39)/10,[3]!BarFt(G58, 2, $E40)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="H59" s="7" t="e">
-        <f ca="1">IF([1]!Bar(H58, 1)*10&lt;16,[1]!BarFt(H58, 2, $E39)/10,[1]!BarFt(H58, 2, $E40)/10)</f>
+        <f ca="1">IF([3]!Bar(H58, 1)*10&lt;16,[3]!BarFt(H58, 2, $E39)/10,[3]!BarFt(H58, 2, $E40)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="I59" s="8"/>
@@ -27837,19 +27998,19 @@
         <v>580</v>
       </c>
       <c r="E60" s="78" t="e">
-        <f ca="1">[1]!Bar(E58, 11)*100</f>
+        <f ca="1">[3]!Bar(E58, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="F60" s="177" t="e">
-        <f ca="1">[1]!Bar(F58, 11)*100</f>
+        <f ca="1">[3]!Bar(F58, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="G60" s="79" t="e">
-        <f ca="1">[1]!Bar(G58, 11)*100</f>
+        <f ca="1">[3]!Bar(G58, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="H60" s="78" t="e">
-        <f ca="1">[1]!Bar(H58, 11)*100</f>
+        <f ca="1">[3]!Bar(H58, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="I60" s="8"/>
@@ -27891,11 +28052,11 @@
       <c r="M61" s="9"/>
     </row>
     <row r="62" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="209" t="s">
+      <c r="B62" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="210"/>
-      <c r="D62" s="211"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="215"/>
       <c r="E62" s="191" t="e">
         <f ca="1">E61/E59</f>
         <v>#NAME?</v>
@@ -27919,11 +28080,11 @@
       <c r="M62" s="9"/>
     </row>
     <row r="63" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="212" t="s">
+      <c r="B63" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="213"/>
-      <c r="D63" s="214"/>
+      <c r="C63" s="226"/>
+      <c r="D63" s="227"/>
       <c r="E63" s="193" t="e">
         <f ca="1">IF(E62&lt;1,"OK","NG")</f>
         <v>#NAME?</v>
@@ -27985,19 +28146,19 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="189" t="e">
-        <f ca="1">MIN((E47-80*2-[1]!Bar(E58,12)*10/PI())/(([1]!Bar(E58,2)-1)),80*3,[1]!Bar(E58,1)*5*10)</f>
+        <f ca="1">MIN((E47-80*2-[3]!Bar(E58,12)*10/PI())/(([3]!Bar(E58,2)-1)),80*3,[3]!Bar(E58,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="F65" s="189" t="e">
-        <f ca="1">MIN((F47-80*2-[1]!Bar(F58,12)*10/PI())/(([1]!Bar(F58,2)-1)),80*3,[1]!Bar(F58,1)*5*10)</f>
+        <f ca="1">MIN((F47-80*2-[3]!Bar(F58,12)*10/PI())/(([3]!Bar(F58,2)-1)),80*3,[3]!Bar(F58,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="G65" s="189" t="e">
-        <f ca="1">MIN((G47-80*2-[1]!Bar(G58,12)*10/PI())/(([1]!Bar(G58,2)-1)),80*3,[1]!Bar(G58,1)*5*10)</f>
+        <f ca="1">MIN((G47-80*2-[3]!Bar(G58,12)*10/PI())/(([3]!Bar(G58,2)-1)),80*3,[3]!Bar(G58,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="H65" s="189" t="e">
-        <f ca="1">MIN((H47-80*2-[1]!Bar(H58,12)*10/PI())/(([1]!Bar(H58,2)-1)),80*3,[1]!Bar(H58,1)*5*10)</f>
+        <f ca="1">MIN((H47-80*2-[3]!Bar(H58,12)*10/PI())/(([3]!Bar(H58,2)-1)),80*3,[3]!Bar(H58,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="I65" s="8"/>
@@ -28013,19 +28174,19 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="182" t="e">
-        <f ca="1">0.3*E65/([1]!Bar(E58,1)*10)+0.4</f>
+        <f ca="1">0.3*E65/([3]!Bar(E58,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="F66" s="183" t="e">
-        <f ca="1">0.3*F65/([1]!Bar(F58,1)*10)+0.4</f>
+        <f ca="1">0.3*F65/([3]!Bar(F58,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="G66" s="37" t="e">
-        <f ca="1">0.3*G65/([1]!Bar(G58,1)*10)+0.4</f>
+        <f ca="1">0.3*G65/([3]!Bar(G58,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="H66" s="183" t="e">
-        <f ca="1">0.3*H65/([1]!Bar(H58,1)*10)+0.4</f>
+        <f ca="1">0.3*H65/([3]!Bar(H58,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="I66" s="8"/>
@@ -28073,19 +28234,19 @@
         <v>586</v>
       </c>
       <c r="E68" s="189" t="e">
-        <f ca="1">[1]!Bar(E58,1)*10/4</f>
+        <f ca="1">[3]!Bar(E58,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="F68" s="190" t="e">
-        <f ca="1">[1]!Bar(F58,1)*10/4</f>
+        <f ca="1">[3]!Bar(F58,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="G68" s="164" t="e">
-        <f ca="1">[1]!Bar(G58,1)*10/4</f>
+        <f ca="1">[3]!Bar(G58,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="H68" s="190" t="e">
-        <f ca="1">[1]!Bar(H58,1)*10/4</f>
+        <f ca="1">[3]!Bar(H58,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="I68" s="8"/>
@@ -28127,17 +28288,17 @@
       <c r="M69" s="13"/>
     </row>
     <row r="72" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="217" t="s">
+      <c r="B72" s="224" t="s">
         <v>562</v>
       </c>
-      <c r="C72" s="218"/>
-      <c r="D72" s="218"/>
-      <c r="E72" s="229" t="s">
+      <c r="C72" s="219"/>
+      <c r="D72" s="219"/>
+      <c r="E72" s="218" t="s">
         <v>592</v>
       </c>
-      <c r="F72" s="218"/>
-      <c r="G72" s="218"/>
-      <c r="H72" s="218"/>
+      <c r="F72" s="219"/>
+      <c r="G72" s="219"/>
+      <c r="H72" s="219"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
@@ -28176,12 +28337,12 @@
         <v>180</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="209" t="s">
+      <c r="E74" s="214" t="s">
         <v>181</v>
       </c>
-      <c r="F74" s="220"/>
-      <c r="G74" s="220"/>
-      <c r="H74" s="221"/>
+      <c r="F74" s="216"/>
+      <c r="G74" s="216"/>
+      <c r="H74" s="217"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="6"/>
@@ -28194,12 +28355,12 @@
         <v>566</v>
       </c>
       <c r="D75" s="13"/>
-      <c r="E75" s="206" t="s">
+      <c r="E75" s="220" t="s">
         <v>182</v>
       </c>
-      <c r="F75" s="207"/>
-      <c r="G75" s="207"/>
-      <c r="H75" s="208"/>
+      <c r="F75" s="212"/>
+      <c r="G75" s="212"/>
+      <c r="H75" s="213"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="6"/>
@@ -28210,14 +28371,14 @@
       <c r="B76" s="11"/>
       <c r="C76" s="57"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="209" t="s">
+      <c r="E76" s="214" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="G76" s="220" t="s">
+      <c r="F76" s="215"/>
+      <c r="G76" s="216" t="s">
         <v>198</v>
       </c>
-      <c r="H76" s="211"/>
+      <c r="H76" s="215"/>
       <c r="I76" s="8"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -28234,16 +28395,16 @@
       <c r="D77" s="169" t="s">
         <v>568</v>
       </c>
-      <c r="E77" s="226">
+      <c r="E77" s="221">
         <f>G73/3</f>
         <v>7</v>
       </c>
-      <c r="F77" s="227"/>
-      <c r="G77" s="228">
+      <c r="F77" s="222"/>
+      <c r="G77" s="223">
         <f>E77*2</f>
         <v>14</v>
       </c>
-      <c r="H77" s="227"/>
+      <c r="H77" s="222"/>
       <c r="I77" s="8"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -28260,16 +28421,16 @@
       <c r="D78" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E78" s="209">
+      <c r="E78" s="214">
         <f>G73/30</f>
         <v>0.7</v>
       </c>
-      <c r="F78" s="221"/>
-      <c r="G78" s="220">
+      <c r="F78" s="217"/>
+      <c r="G78" s="216">
         <f>E78*1.5</f>
         <v>1.0499999999999998</v>
       </c>
-      <c r="H78" s="221"/>
+      <c r="H78" s="217"/>
       <c r="I78" s="8"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -28286,14 +28447,14 @@
       <c r="D79" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E79" s="222">
+      <c r="E79" s="206">
         <v>2508</v>
       </c>
-      <c r="F79" s="223"/>
-      <c r="G79" s="224">
+      <c r="F79" s="207"/>
+      <c r="G79" s="208">
         <v>2886</v>
       </c>
-      <c r="H79" s="225"/>
+      <c r="H79" s="209"/>
       <c r="I79" s="8"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -28308,15 +28469,15 @@
         <v>573</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="215">
+      <c r="E80" s="210">
         <v>1</v>
       </c>
-      <c r="F80" s="216"/>
-      <c r="G80" s="207">
+      <c r="F80" s="211"/>
+      <c r="G80" s="212">
         <f>E80</f>
         <v>1</v>
       </c>
-      <c r="H80" s="208"/>
+      <c r="H80" s="213"/>
       <c r="I80" s="8"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -28324,11 +28485,11 @@
       <c r="M80" s="9"/>
     </row>
     <row r="81" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="217" t="s">
+      <c r="B81" s="224" t="s">
         <v>171</v>
       </c>
-      <c r="C81" s="218"/>
-      <c r="D81" s="219"/>
+      <c r="C81" s="219"/>
+      <c r="D81" s="228"/>
       <c r="E81" s="7" t="s">
         <v>574</v>
       </c>
@@ -28561,11 +28722,11 @@
       <c r="M88" s="9"/>
     </row>
     <row r="89" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="209" t="s">
+      <c r="B89" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="C89" s="220"/>
-      <c r="D89" s="221"/>
+      <c r="C89" s="216"/>
+      <c r="D89" s="217"/>
       <c r="E89" s="182">
         <f>+E88/E78</f>
         <v>0.75827664399092976</v>
@@ -28589,11 +28750,11 @@
       <c r="M89" s="9"/>
     </row>
     <row r="90" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="206" t="s">
+      <c r="B90" s="220" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="207"/>
-      <c r="D90" s="208"/>
+      <c r="C90" s="212"/>
+      <c r="D90" s="213"/>
       <c r="E90" s="184" t="str">
         <f>IF(E89&lt;1,"OK","NG")</f>
         <v>OK</v>
@@ -28679,11 +28840,11 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="209" t="s">
+      <c r="B93" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="210"/>
-      <c r="D93" s="211"/>
+      <c r="C93" s="229"/>
+      <c r="D93" s="215"/>
       <c r="E93" s="170" t="s">
         <v>593</v>
       </c>
@@ -28715,19 +28876,19 @@
         <v>568</v>
       </c>
       <c r="E94" s="7" t="e">
-        <f ca="1">IF([1]!Bar(E93, 1)*10&lt;16,[1]!BarFt(E93, 1, $E74)/10,[1]!BarFt(E93, 1, $E75)/10)</f>
+        <f ca="1">IF([3]!Bar(E93, 1)*10&lt;16,[3]!BarFt(E93, 1, $E74)/10,[3]!BarFt(E93, 1, $E75)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="F94" s="171" t="e">
-        <f ca="1">IF([1]!Bar(F93, 1)*10&lt;16,[1]!BarFt(F93, 1, $E74)/10,[1]!BarFt(F93, 1, $E75)/10)</f>
+        <f ca="1">IF([3]!Bar(F93, 1)*10&lt;16,[3]!BarFt(F93, 1, $E74)/10,[3]!BarFt(F93, 1, $E75)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="G94" s="6" t="e">
-        <f ca="1">IF([1]!Bar(G93, 1)*10&lt;16,[1]!BarFt(G93, 2, $E74)/10,[1]!BarFt(G93, 2, $E75)/10)</f>
+        <f ca="1">IF([3]!Bar(G93, 1)*10&lt;16,[3]!BarFt(G93, 2, $E74)/10,[3]!BarFt(G93, 2, $E75)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="H94" s="7" t="e">
-        <f ca="1">IF([1]!Bar(H93, 1)*10&lt;16,[1]!BarFt(H93, 2, $E74)/10,[1]!BarFt(H93, 2, $E75)/10)</f>
+        <f ca="1">IF([3]!Bar(H93, 1)*10&lt;16,[3]!BarFt(H93, 2, $E74)/10,[3]!BarFt(H93, 2, $E75)/10)</f>
         <v>#NAME?</v>
       </c>
       <c r="I94" s="8"/>
@@ -28747,19 +28908,19 @@
         <v>580</v>
       </c>
       <c r="E95" s="78" t="e">
-        <f ca="1">[1]!Bar(E93, 11)*100</f>
+        <f ca="1">[3]!Bar(E93, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="F95" s="177" t="e">
-        <f ca="1">[1]!Bar(F93, 11)*100</f>
+        <f ca="1">[3]!Bar(F93, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="G95" s="79" t="e">
-        <f ca="1">[1]!Bar(G93, 11)*100</f>
+        <f ca="1">[3]!Bar(G93, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="H95" s="78" t="e">
-        <f ca="1">[1]!Bar(H93, 11)*100</f>
+        <f ca="1">[3]!Bar(H93, 11)*100</f>
         <v>#NAME?</v>
       </c>
       <c r="I95" s="8"/>
@@ -28801,11 +28962,11 @@
       <c r="M96" s="9"/>
     </row>
     <row r="97" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="209" t="s">
+      <c r="B97" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="210"/>
-      <c r="D97" s="211"/>
+      <c r="C97" s="229"/>
+      <c r="D97" s="215"/>
       <c r="E97" s="191" t="e">
         <f ca="1">E96/E94</f>
         <v>#NAME?</v>
@@ -28829,11 +28990,11 @@
       <c r="M97" s="9"/>
     </row>
     <row r="98" spans="2:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="212" t="s">
+      <c r="B98" s="225" t="s">
         <v>258</v>
       </c>
-      <c r="C98" s="213"/>
-      <c r="D98" s="214"/>
+      <c r="C98" s="226"/>
+      <c r="D98" s="227"/>
       <c r="E98" s="193" t="e">
         <f ca="1">IF(E97&lt;1,"OK","NG")</f>
         <v>#NAME?</v>
@@ -28895,19 +29056,19 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="189" t="e">
-        <f ca="1">MIN((E82-80*2-[1]!Bar(E93,12)*10/PI())/(([1]!Bar(E93,2)-1)),80*3,[1]!Bar(E93,1)*5*10)</f>
+        <f ca="1">MIN((E82-80*2-[3]!Bar(E93,12)*10/PI())/(([3]!Bar(E93,2)-1)),80*3,[3]!Bar(E93,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="F100" s="189" t="e">
-        <f ca="1">MIN((F82-80*2-[1]!Bar(F93,12)*10/PI())/(([1]!Bar(F93,2)-1)),80*3,[1]!Bar(F93,1)*5*10)</f>
+        <f ca="1">MIN((F82-80*2-[3]!Bar(F93,12)*10/PI())/(([3]!Bar(F93,2)-1)),80*3,[3]!Bar(F93,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="G100" s="189" t="e">
-        <f ca="1">MIN((G82-80*2-[1]!Bar(G93,12)*10/PI())/(([1]!Bar(G93,2)-1)),80*3,[1]!Bar(G93,1)*5*10)</f>
+        <f ca="1">MIN((G82-80*2-[3]!Bar(G93,12)*10/PI())/(([3]!Bar(G93,2)-1)),80*3,[3]!Bar(G93,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="H100" s="189" t="e">
-        <f ca="1">MIN((H82-80*2-[1]!Bar(H93,12)*10/PI())/(([1]!Bar(H93,2)-1)),80*3,[1]!Bar(H93,1)*5*10)</f>
+        <f ca="1">MIN((H82-80*2-[3]!Bar(H93,12)*10/PI())/(([3]!Bar(H93,2)-1)),80*3,[3]!Bar(H93,1)*5*10)</f>
         <v>#NAME?</v>
       </c>
       <c r="I100" s="8"/>
@@ -28923,19 +29084,19 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="182" t="e">
-        <f ca="1">0.3*E100/([1]!Bar(E93,1)*10)+0.4</f>
+        <f ca="1">0.3*E100/([3]!Bar(E93,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="F101" s="183" t="e">
-        <f ca="1">0.3*F100/([1]!Bar(F93,1)*10)+0.4</f>
+        <f ca="1">0.3*F100/([3]!Bar(F93,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="G101" s="37" t="e">
-        <f ca="1">0.3*G100/([1]!Bar(G93,1)*10)+0.4</f>
+        <f ca="1">0.3*G100/([3]!Bar(G93,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="H101" s="183" t="e">
-        <f ca="1">0.3*H100/([1]!Bar(H93,1)*10)+0.4</f>
+        <f ca="1">0.3*H100/([3]!Bar(H93,1)*10)+0.4</f>
         <v>#NAME?</v>
       </c>
       <c r="I101" s="8"/>
@@ -28983,19 +29144,19 @@
         <v>586</v>
       </c>
       <c r="E103" s="189" t="e">
-        <f ca="1">[1]!Bar(E93,1)*10/4</f>
+        <f ca="1">[3]!Bar(E93,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="F103" s="190" t="e">
-        <f ca="1">[1]!Bar(F93,1)*10/4</f>
+        <f ca="1">[3]!Bar(F93,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="G103" s="164" t="e">
-        <f ca="1">[1]!Bar(G93,1)*10/4</f>
+        <f ca="1">[3]!Bar(G93,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="H103" s="190" t="e">
-        <f ca="1">[1]!Bar(H93,1)*10/4</f>
+        <f ca="1">[3]!Bar(H93,1)*10/4</f>
         <v>#NAME?</v>
       </c>
       <c r="I103" s="8"/>
@@ -29038,26 +29199,38 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="E42:F42"/>
@@ -29066,38 +29239,26 @@
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="E40:H40"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E74:H74"/>
-    <mergeCell ref="E75:H75"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.61" right="0.78740157480314965" top="0.98425196850393704" bottom="0.85" header="0.51181102362204722" footer="0.51181102362204722"/>
